--- a/Documentação/Tabelas_LN/znpur003-Tipos ordem por grupo item.xlsx
+++ b/Documentação/Tabelas_LN/znpur003-Tipos ordem por grupo item.xlsx
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t/>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>Grupo de Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1020,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>45</v>
